--- a/biology/Médecine/Bulletin_du_cancer/Bulletin_du_cancer.xlsx
+++ b/biology/Médecine/Bulletin_du_cancer/Bulletin_du_cancer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Bulletin du Cancer est une revue médicale francophone mensuelle créée en 1914 et éditée par John Libbey Eurotext jusqu'en 2014. Organe officiel de la Société française du cancer (SFC), Bulletin du Cancer est destiné à l’ensemble des cancérologues, chirurgiens, radiothérapeutes, biologistes, cliniciens…[1],[2]
+Bulletin du Cancer est une revue médicale francophone mensuelle créée en 1914 et éditée par John Libbey Eurotext jusqu'en 2014. Organe officiel de la Société française du cancer (SFC), Bulletin du Cancer est destiné à l’ensemble des cancérologues, chirurgiens, radiothérapeutes, biologistes, cliniciens…,
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Contenus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bulletin du cancer traite principalement de cancérologie, et couvre l'ensemble des informations disponibles sur le sujet, que ce soit sous formes d'articles originaux, de synthèses, de cas cliniques, de lettres et d'actualités.
 Elle inclut plusieurs disciplines telles que l'hématologie, les tumeurs solides, l'oncologie, la pharmacologie, l'épidémiologie, la biologie et la recherche.
@@ -545,7 +559,9 @@
           <t>Comité de rédaction[3]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rédacteur en chef : Jacques-Olivier Bay.
 Rédacteur en chef adjoint(s): Gilles L'Allemain.
